--- a/submission/table_S17_family_kw_stats_dn1to9.xlsx
+++ b/submission/table_S17_family_kw_stats_dn1to9.xlsx
@@ -441,7 +441,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.006253448592974067</v>
+        <v>0.00257494942063638</v>
       </c>
       <c r="K2">
         <v>4.815880131246531e-06</v>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.00916997293675609</v>
+        <v>0.007540923303292256</v>
       </c>
       <c r="K3">
         <v>4.815880131246531e-06</v>
@@ -516,10 +516,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.02711053890012875</v>
+        <v>0.02299061982711054</v>
       </c>
       <c r="H4">
-        <v>0.0007050456746980565</v>
+        <v>0.0006437373551590951</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -558,16 +558,16 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0009196247930844216</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="H5">
-        <v>0.004046349089571455</v>
+        <v>0.001379437189626632</v>
       </c>
       <c r="I5">
-        <v>0.0342560235423947</v>
+        <v>0.03577340445098399</v>
       </c>
       <c r="J5">
-        <v>0.01240179720959563</v>
+        <v>0.001655324627551959</v>
       </c>
       <c r="K5">
         <v>0.0002105781444464065</v>
@@ -594,22 +594,22 @@
         </is>
       </c>
       <c r="E6">
-        <v>0.1053890012874747</v>
+        <v>0.08129483170866286</v>
       </c>
       <c r="F6">
-        <v>0.02600239102446202</v>
+        <v>0.02151922015817546</v>
       </c>
       <c r="G6">
-        <v>0.30141622218135</v>
+        <v>0.2315615228986573</v>
       </c>
       <c r="H6">
-        <v>0.3955306235056097</v>
+        <v>0.4261541291153209</v>
       </c>
       <c r="I6">
-        <v>0.0002299061982711054</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="J6">
-        <v>0.0257494942063638</v>
+        <v>0.01747287106860401</v>
       </c>
       <c r="K6">
         <v>0.0003091421962363524</v>
@@ -636,22 +636,22 @@
         </is>
       </c>
       <c r="E7">
-        <v>0.01986389553062351</v>
+        <v>0.01747287106860401</v>
       </c>
       <c r="F7">
-        <v>0.03427901416222182</v>
+        <v>0.04294647783704249</v>
       </c>
       <c r="G7">
-        <v>0.03921280117711973</v>
+        <v>0.04193489056464962</v>
       </c>
       <c r="H7">
-        <v>0.002513641101097419</v>
+        <v>0.001563362148243517</v>
       </c>
       <c r="I7">
-        <v>0.002207099503402612</v>
+        <v>0.002299061982711054</v>
       </c>
       <c r="J7">
-        <v>0.0007094248403794109</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="K7">
         <v>0.0003757973517738608</v>
@@ -681,13 +681,13 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.007816810741217584</v>
+        <v>0.005425786279198087</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="E9">
-        <v>0.02151922015817546</v>
+        <v>0.007081110906750046</v>
       </c>
       <c r="F9">
-        <v>0.1340353135920545</v>
+        <v>0.1370240941695788</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -732,10 +732,10 @@
         <v>0.006437373551590951</v>
       </c>
       <c r="I9">
-        <v>4.598123965422108e-05</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.024751044431015</v>
+        <v>0.009380172889461099</v>
       </c>
       <c r="K9">
         <v>0.0004261819307543779</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.005596573740770908</v>
+        <v>0.007173073386058488</v>
       </c>
       <c r="K10">
         <v>0.0004597664153506239</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.02170314511679235</v>
+        <v>0.01563362148243517</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.01171864736330434</v>
+        <v>0.008460548096376677</v>
       </c>
       <c r="K11">
         <v>0.0004685962087544135</v>
@@ -846,22 +846,22 @@
         </is>
       </c>
       <c r="E12">
-        <v>0.00128747471031819</v>
+        <v>0.0009196247930844216</v>
       </c>
       <c r="F12">
-        <v>0.001034577892219974</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="G12">
-        <v>0.005554533750229905</v>
+        <v>0.001103549751701306</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.598123965422108e-05</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>7.8824982264379e-05</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0.000515658423566929</v>
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="E13">
-        <v>0.00168597878732144</v>
+        <v>0.0006437373551590951</v>
       </c>
       <c r="F13">
-        <v>0.007494942063638036</v>
+        <v>0.005885598675740298</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.0007663539942370179</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.002421678621788977</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0003310649255103917</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0.003157378456256514</v>
+        <v>0.003862424130954571</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         </is>
       </c>
       <c r="E16">
-        <v>0.001961866225246766</v>
+        <v>0.001747287106860401</v>
       </c>
       <c r="F16">
-        <v>0.002758874379253265</v>
+        <v>0.002299061982711054</v>
       </c>
       <c r="G16">
-        <v>0.001618539635828582</v>
+        <v>0.001655324627551959</v>
       </c>
       <c r="H16">
-        <v>0.0003371957574642879</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="I16">
-        <v>0.001126540371528416</v>
+        <v>0.001103549751701306</v>
       </c>
       <c r="J16">
-        <v>0.0008670748049081689</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="K16">
         <v>0.004089725070762996</v>
@@ -1056,22 +1056,22 @@
         </is>
       </c>
       <c r="E17">
-        <v>0.6410397890993808</v>
+        <v>0.6103549751701305</v>
       </c>
       <c r="F17">
-        <v>0.3735745815707192</v>
+        <v>0.4775611550487401</v>
       </c>
       <c r="G17">
-        <v>0.2693764943902888</v>
+        <v>0.3601250689718595</v>
       </c>
       <c r="H17">
-        <v>0.1264177548893385</v>
+        <v>0.1102630126908221</v>
       </c>
       <c r="I17">
-        <v>0.3491355526945006</v>
+        <v>0.3673901048372264</v>
       </c>
       <c r="J17">
-        <v>0.3894479623742085</v>
+        <v>0.4462019496045613</v>
       </c>
       <c r="K17">
         <v>0.009120495254967734</v>
@@ -1098,22 +1098,22 @@
         </is>
       </c>
       <c r="E18">
-        <v>0.00042915823677273</v>
+        <v>0.0004598123965422108</v>
       </c>
       <c r="F18">
-        <v>0.0005747654956777635</v>
+        <v>0.0004598123965422107</v>
       </c>
       <c r="G18">
-        <v>0.001986389553062351</v>
+        <v>0.001655324627551959</v>
       </c>
       <c r="H18">
-        <v>0.0006437373551590951</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="I18">
-        <v>0.002620930660290601</v>
+        <v>0.001655324627551959</v>
       </c>
       <c r="J18">
-        <v>0.0009984497753488006</v>
+        <v>0.0009196247930844216</v>
       </c>
       <c r="K18">
         <v>0.009447709341810944</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.001234924722141937</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0.02963200519765544</v>
@@ -1185,19 +1185,19 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0001471399668935074</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="H20">
-        <v>9.196247930844215e-05</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.005097348853096508</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="K20">
         <v>0.03401724340351953</v>
@@ -1224,22 +1224,22 @@
         </is>
       </c>
       <c r="E21">
-        <v>0.1042854515357734</v>
+        <v>0.08295015633621483</v>
       </c>
       <c r="F21">
-        <v>0.1795567408497333</v>
+        <v>0.1484274416038256</v>
       </c>
       <c r="G21">
-        <v>0.1751701305867206</v>
+        <v>0.1427257678867022</v>
       </c>
       <c r="H21">
-        <v>0.2417693581018944</v>
+        <v>0.1910060695236344</v>
       </c>
       <c r="I21">
-        <v>0.387897737723009</v>
+        <v>0.383943351112746</v>
       </c>
       <c r="J21">
-        <v>0.1356840694710844</v>
+        <v>0.09085892955674085</v>
       </c>
       <c r="K21">
         <v>0.04509602626624041</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.03454723806020477</v>
+        <v>0.03209490527864631</v>
       </c>
       <c r="K22">
         <v>9.499591942068255e-06</v>
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.01480595916865919</v>
+        <v>0.004414199006805224</v>
       </c>
       <c r="K23">
         <v>9.499591942068255e-06</v>
@@ -1353,19 +1353,19 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0170130586720618</v>
+        <v>0.01167923487217215</v>
       </c>
       <c r="H24">
-        <v>0.07007540923303292</v>
+        <v>0.07540923303292256</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>3.065415976948071e-05</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0.000159862259553447</v>
@@ -1392,22 +1392,22 @@
         </is>
       </c>
       <c r="E25">
-        <v>2.627499408812633e-05</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>4.598123965422108e-05</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0001379437189626632</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>0.009931947765311753</v>
+        <v>0.001839249586168843</v>
       </c>
       <c r="I25">
-        <v>0.01633253632517933</v>
+        <v>0.01232297222733125</v>
       </c>
       <c r="J25">
-        <v>0.0003678499172337687</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0.0005256479327332506</v>
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="E26">
-        <v>5.254998817625266e-05</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>6.897185948133162e-05</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0.07573110171050211</v>
+        <v>0.05949972411256207</v>
       </c>
       <c r="H26">
-        <v>0.02313775979400405</v>
+        <v>0.006989148427441604</v>
       </c>
       <c r="I26">
-        <v>0.05510391760161854</v>
+        <v>0.04782048924038992</v>
       </c>
       <c r="J26">
-        <v>0.1366868984121145</v>
+        <v>0.1006069523634357</v>
       </c>
       <c r="K26">
         <v>0.0008682908994677581</v>
@@ -1476,22 +1476,22 @@
         </is>
       </c>
       <c r="E27">
-        <v>0.8783467773719751</v>
+        <v>0.8942431487952915</v>
       </c>
       <c r="F27">
-        <v>0.756667279749862</v>
+        <v>0.7611734412359757</v>
       </c>
       <c r="G27">
-        <v>0.1552096744528232</v>
+        <v>0.1419900680522347</v>
       </c>
       <c r="H27">
-        <v>0.287070075409233</v>
+        <v>0.2223652749678131</v>
       </c>
       <c r="I27">
-        <v>0.5414015081846606</v>
+        <v>0.5663049475813867</v>
       </c>
       <c r="J27">
-        <v>0.4474281159953405</v>
+        <v>0.4908037520691558</v>
       </c>
       <c r="K27">
         <v>0.001307392949132894</v>
@@ -1518,22 +1518,22 @@
         </is>
       </c>
       <c r="E28">
-        <v>0.09248797919020468</v>
+        <v>0.08754828030163693</v>
       </c>
       <c r="F28">
-        <v>0.2302510575685121</v>
+        <v>0.232113297774508</v>
       </c>
       <c r="G28">
-        <v>0.02524370057016737</v>
+        <v>0.01305867206179879</v>
       </c>
       <c r="H28">
-        <v>0.126209306602906</v>
+        <v>0.1392311936729814</v>
       </c>
       <c r="I28">
-        <v>0.1682913371344492</v>
+        <v>0.1565201397829686</v>
       </c>
       <c r="J28">
-        <v>0.3365826742688983</v>
+        <v>0.3133161670038624</v>
       </c>
       <c r="K28">
         <v>0.00922871247475335</v>
@@ -1560,22 +1560,22 @@
         </is>
       </c>
       <c r="E29">
-        <v>0.007908773220526025</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="F29">
-        <v>0.0008276623137759794</v>
+        <v>0.0009196247930844216</v>
       </c>
       <c r="G29">
-        <v>0.7089617436086078</v>
+        <v>0.6529336030899393</v>
       </c>
       <c r="H29">
-        <v>0.3988964502482987</v>
+        <v>0.5442339525473607</v>
       </c>
       <c r="I29">
-        <v>0.001066764759977929</v>
+        <v>0.001471399668935074</v>
       </c>
       <c r="J29">
-        <v>0.0006130831953896144</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="K29">
         <v>0.0163252255452198</v>
@@ -1602,22 +1602,22 @@
         </is>
       </c>
       <c r="E30">
-        <v>0.002785149373341391</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="F30">
-        <v>0.0007586904542946477</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="G30">
+        <v>0.0002758874379253265</v>
+      </c>
+      <c r="H30">
+        <v>0.007173073386058488</v>
+      </c>
+      <c r="I30">
+        <v>0.00386242413095457</v>
+      </c>
+      <c r="J30">
         <v>0.0003678499172337686</v>
-      </c>
-      <c r="H30">
-        <v>0.03615964686407946</v>
-      </c>
-      <c r="I30">
-        <v>0.1096928453191098</v>
-      </c>
-      <c r="J30">
-        <v>0.0005211207160811722</v>
       </c>
       <c r="K30">
         <v>0.0163252255452198</v>
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="E31">
-        <v>0.001182374733965685</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="F31">
-        <v>0.0007356998344675372</v>
+        <v>0.0004598123965422108</v>
       </c>
       <c r="G31">
-        <v>0.001126540371528416</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="H31">
-        <v>0.01258046716939489</v>
+        <v>0.01066764759977929</v>
       </c>
       <c r="I31">
-        <v>0.06904542946477837</v>
+        <v>0.006253448592974067</v>
       </c>
       <c r="J31">
-        <v>0.02381828214088652</v>
+        <v>0.0006437373551590951</v>
       </c>
       <c r="K31">
         <v>0.03474574653421025</v>
@@ -1695,13 +1695,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0.03149714916314144</v>
+        <v>0.02547360676843848</v>
       </c>
       <c r="K32">
         <v>1.943827558245307e-05</v>
@@ -1734,16 +1734,16 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0.04344307522530808</v>
+        <v>0.03512966709582491</v>
       </c>
       <c r="H33">
-        <v>0.04301544969652382</v>
+        <v>0.04073937833363987</v>
       </c>
       <c r="I33">
-        <v>9.196247930844216e-05</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>0.0001379437189626632</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>1.943827558245307e-05</v>
@@ -1770,10 +1770,10 @@
         </is>
       </c>
       <c r="E34">
-        <v>0.01142633805407394</v>
+        <v>0.01121942247562994</v>
       </c>
       <c r="F34">
-        <v>0.004755773929950866</v>
+        <v>0.002023174544785727</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.001448409049107964</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>2.50617352792517e-05</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0.01405186683832996</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="H35">
-        <v>0.008207651278278463</v>
+        <v>0.002666911899944822</v>
       </c>
       <c r="I35">
-        <v>0.01946539145362025</v>
+        <v>0.01278278462387346</v>
       </c>
       <c r="J35">
-        <v>0.04053246275519588</v>
+        <v>0.03724480411991907</v>
       </c>
       <c r="K35">
         <v>7.350670684491623e-05</v>
@@ -1854,22 +1854,22 @@
         </is>
       </c>
       <c r="E36">
-        <v>0.01179418797130771</v>
+        <v>0.001103549751701306</v>
       </c>
       <c r="F36">
-        <v>0.0009196247930844216</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="G36">
-        <v>0.0004414199006805223</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="H36">
-        <v>0.162221813500092</v>
+        <v>0.1286555085525106</v>
       </c>
       <c r="I36">
-        <v>0.3778431733186193</v>
+        <v>0.4517196983630679</v>
       </c>
       <c r="J36">
-        <v>0.3048786095273129</v>
+        <v>0.3148795291521059</v>
       </c>
       <c r="K36">
         <v>7.350670684491623e-05</v>
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.03538256391392312</v>
+        <v>0.008276623137759793</v>
       </c>
       <c r="K37">
         <v>0.0001803065340942086</v>
@@ -1938,22 +1938,22 @@
         </is>
       </c>
       <c r="E38">
-        <v>0.08922659554901599</v>
+        <v>0.002023174544785727</v>
       </c>
       <c r="F38">
-        <v>0.1105126251346594</v>
+        <v>0.001839249586168843</v>
       </c>
       <c r="G38">
-        <v>0.7751701305867207</v>
+        <v>0.7544601802464594</v>
       </c>
       <c r="H38">
-        <v>0.4207053522162957</v>
+        <v>0.4128195696155968</v>
       </c>
       <c r="I38">
-        <v>0.004199619888418858</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="J38">
-        <v>0.06090215192201582</v>
+        <v>0.001103549751701306</v>
       </c>
       <c r="K38">
         <v>0.0004762557400048614</v>
@@ -1980,7 +1980,7 @@
         </is>
       </c>
       <c r="E39">
-        <v>4.598123965422108e-05</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1989,13 +1989,13 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.005057936361964319</v>
+        <v>0.003034761817178591</v>
       </c>
       <c r="I39">
-        <v>0.01079026423885721</v>
+        <v>0.003310649255103918</v>
       </c>
       <c r="J39">
-        <v>0.001149530991355527</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="K39">
         <v>0.0004762557400048614</v>
@@ -2022,22 +2022,22 @@
         </is>
       </c>
       <c r="E40">
-        <v>0.1490481883391576</v>
+        <v>0.1575317270553614</v>
       </c>
       <c r="F40">
-        <v>0.2028166793662471</v>
+        <v>0.1986389553062351</v>
       </c>
       <c r="G40">
-        <v>0.008239838146036418</v>
+        <v>0.008644473054993563</v>
       </c>
       <c r="H40">
-        <v>0.06513242597020416</v>
+        <v>0.06115504874011403</v>
       </c>
       <c r="I40">
-        <v>0.0766353994237018</v>
+        <v>0.05499356262644841</v>
       </c>
       <c r="J40">
-        <v>0.08731837410336582</v>
+        <v>0.05122310097480227</v>
       </c>
       <c r="K40">
         <v>0.0004762557400048614</v>
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.002528968180982159</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="K41">
         <v>0.001093377230232179</v>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0.009058304211881552</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         </is>
       </c>
       <c r="E43">
-        <v>0.5300947213536877</v>
+        <v>0.6315983078903807</v>
       </c>
       <c r="F43">
-        <v>0.5494101263827216</v>
+        <v>0.5926062166636012</v>
       </c>
       <c r="G43">
-        <v>0.09891484274416038</v>
+        <v>0.01121942247562994</v>
       </c>
       <c r="H43">
-        <v>0.06375298878057753</v>
+        <v>0.07127092146404268</v>
       </c>
       <c r="I43">
-        <v>0.2701244558886641</v>
+        <v>0.2187787382747839</v>
       </c>
       <c r="J43">
-        <v>0.2611504506161486</v>
+        <v>0.2451719698363068</v>
       </c>
       <c r="K43">
         <v>0.001197485150875716</v>
@@ -2190,22 +2190,22 @@
         </is>
       </c>
       <c r="E44">
-        <v>0.009771013426521978</v>
+        <v>0.01094353503770462</v>
       </c>
       <c r="F44">
-        <v>0.004177724060012086</v>
+        <v>0.00128747471031819</v>
       </c>
       <c r="G44">
-        <v>0.0004782048924038992</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="H44">
-        <v>0.131644289130035</v>
+        <v>0.1116424498804488</v>
       </c>
       <c r="I44">
-        <v>0.09607013671755257</v>
+        <v>0.04892403899209122</v>
       </c>
       <c r="J44">
-        <v>0.04660198638955306</v>
+        <v>0.008460548096376679</v>
       </c>
       <c r="K44">
         <v>0.001197485150875716</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>0.0002452332781558458</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0.01262185028508368</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="I46">
-        <v>0.003555882533259763</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2316,7 +2316,7 @@
         </is>
       </c>
       <c r="E47">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0.004184292808534118</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         </is>
       </c>
       <c r="E48">
-        <v>0.1229308442155601</v>
+        <v>0.02823248114769174</v>
       </c>
       <c r="F48">
-        <v>0.03289629259833417</v>
+        <v>0.01563362148243517</v>
       </c>
       <c r="G48">
-        <v>0.003384219238550671</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="H48">
-        <v>0.03398013610446938</v>
+        <v>0.01140334743424683</v>
       </c>
       <c r="I48">
-        <v>0.06474158543314328</v>
+        <v>0.06694868493654589</v>
       </c>
       <c r="J48">
-        <v>0.006069523634357183</v>
+        <v>0.001103549751701306</v>
       </c>
       <c r="K48">
         <v>0.04470457352907858</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>0.0006667279749862056</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>0.005254998817625266</v>
+        <v>0.001839249586168843</v>
       </c>
       <c r="K50">
         <v>1.830862022473706e-05</v>
@@ -2496,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>3.678499172337686e-05</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>0.02094117028823669</v>
+        <v>0.01820857090307155</v>
       </c>
       <c r="K51">
         <v>2.571903159598391e-05</v>
@@ -2526,16 +2526,16 @@
         </is>
       </c>
       <c r="E52">
-        <v>3.065415976948071e-05</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>0.02214456501747287</v>
+        <v>0.01967997057200662</v>
       </c>
       <c r="H52">
-        <v>0.01784072098583778</v>
+        <v>0.0152657715652014</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -2568,10 +2568,10 @@
         </is>
       </c>
       <c r="E53">
-        <v>0.004352890687266262</v>
+        <v>0.003310649255103917</v>
       </c>
       <c r="F53">
-        <v>0.01574857458157072</v>
+        <v>0.002299061982711054</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>0.000551774875850653</v>
+        <v>0</v>
       </c>
       <c r="K53">
         <v>6.133988667835799e-05</v>
@@ -2619,13 +2619,13 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>0.007563913923119368</v>
+        <v>0.002758874379253265</v>
       </c>
       <c r="I54">
-        <v>0.02666911899944822</v>
+        <v>0.002391024462019496</v>
       </c>
       <c r="J54">
-        <v>0.002023174544785727</v>
+        <v>0.0009196247930844216</v>
       </c>
       <c r="K54">
         <v>6.133988667835799e-05</v>
@@ -2661,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>0.01064465697995218</v>
+        <v>0.005425786279198087</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="E56">
-        <v>0.2320826436147385</v>
+        <v>0.1831892587824168</v>
       </c>
       <c r="F56">
-        <v>0.03892311936729814</v>
+        <v>0.006805223468824719</v>
       </c>
       <c r="G56">
-        <v>0.001029979768254552</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="H56">
-        <v>0.1901784072098584</v>
+        <v>0.1571638771381276</v>
       </c>
       <c r="I56">
-        <v>0.1871620378885415</v>
+        <v>0.1407025933419165</v>
       </c>
       <c r="J56">
-        <v>0.460469271394414</v>
+        <v>0.5335663049475814</v>
       </c>
       <c r="K56">
         <v>0.0001877479023791449</v>
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0.00307417430831078</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="K57">
         <v>0.0005683353630334826</v>
@@ -2781,19 +2781,19 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0.0002528968180982159</v>
+        <v>0</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>0.007058120286922935</v>
+        <v>0.00386242413095457</v>
       </c>
       <c r="I58">
-        <v>3.678499172337686e-05</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>0.04724243937045114</v>
+        <v>0.009931947765311753</v>
       </c>
       <c r="K58">
         <v>0.0006595094170135176</v>
@@ -2823,19 +2823,19 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>9.196247930844215e-05</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>0.003421004230274048</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="H59">
-        <v>0.0001839249586168843</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>0.0117711973514806</v>
+        <v>0.003310649255103918</v>
       </c>
       <c r="J59">
-        <v>0.003152999290575159</v>
+        <v>0.002207099503402612</v>
       </c>
       <c r="K59">
         <v>0.00146151179540956</v>
@@ -2862,22 +2862,22 @@
         </is>
       </c>
       <c r="E60">
-        <v>0.001471399668935074</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>0.0001103549751701306</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>0.005241861320581203</v>
+        <v>0.001655324627551959</v>
       </c>
       <c r="I60">
-        <v>0.005370608791613021</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="J60">
-        <v>0.0003678499172337687</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="K60">
         <v>0.009975479955376915</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>0.0003218686775795475</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -2946,22 +2946,22 @@
         </is>
       </c>
       <c r="E62">
-        <v>0.0656612102262277</v>
+        <v>0.04965973882655876</v>
       </c>
       <c r="F62">
-        <v>0.062810373367666</v>
+        <v>0.0333823799889645</v>
       </c>
       <c r="G62">
-        <v>0.03601250689718595</v>
+        <v>0.03071546808901968</v>
       </c>
       <c r="H62">
-        <v>0.136863159830789</v>
+        <v>0.1320581202869229</v>
       </c>
       <c r="I62">
-        <v>0.2400956409784808</v>
+        <v>0.1835571086996505</v>
       </c>
       <c r="J62">
-        <v>0.07829948238261647</v>
+        <v>0.0750413831156888</v>
       </c>
       <c r="K62">
         <v>0.02010416324381736</v>
@@ -2988,22 +2988,22 @@
         </is>
       </c>
       <c r="E63">
-        <v>0.3462387345962847</v>
+        <v>0.3924958616884311</v>
       </c>
       <c r="F63">
-        <v>0.4752620930660291</v>
+        <v>0.6792348721721537</v>
       </c>
       <c r="G63">
-        <v>0.6114033474342468</v>
+        <v>0.5521427257678867</v>
       </c>
       <c r="H63">
-        <v>0.425947213536877</v>
+        <v>0.4128195696155968</v>
       </c>
       <c r="I63">
-        <v>0.0003310649255103917</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="J63">
-        <v>0.04973856380882315</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="K63">
         <v>0.02123326989179409</v>
@@ -3030,22 +3030,22 @@
         </is>
       </c>
       <c r="E64">
-        <v>0.0004291582367727301</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="F64">
-        <v>0.002643921280117712</v>
+        <v>0.0004598123965422108</v>
       </c>
       <c r="G64">
-        <v>0.001361044693764944</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="H64">
-        <v>0.0126448409049108</v>
+        <v>0.01131138495493838</v>
       </c>
       <c r="I64">
-        <v>0.01004230274048188</v>
+        <v>0.002758874379253265</v>
       </c>
       <c r="J64">
-        <v>0.00307417430831078</v>
+        <v>0.003126724296487033</v>
       </c>
       <c r="K64">
         <v>0.03096424104110667</v>
@@ -3072,22 +3072,22 @@
         </is>
       </c>
       <c r="E65">
-        <v>0.0005824290356201337</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="F65">
-        <v>0.000551774875850653</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="G65">
-        <v>3.678499172337686e-05</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>0.0008736435534302004</v>
+        <v>0.0008276623137759794</v>
       </c>
       <c r="I65">
-        <v>0.000257494942063638</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>0.000157649964528758</v>
+        <v>0</v>
       </c>
       <c r="K65">
         <v>0.03096424104110667</v>
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="E66">
-        <v>0.009533443688308503</v>
+        <v>0.01223100974802281</v>
       </c>
       <c r="F66">
-        <v>0.0100469008644473</v>
+        <v>0.007816810741217583</v>
       </c>
       <c r="G66">
-        <v>0.07618171785911348</v>
+        <v>0.08368585617068236</v>
       </c>
       <c r="H66">
-        <v>0.003241677395622586</v>
+        <v>0.001931212065477285</v>
       </c>
       <c r="I66">
-        <v>0.01905462571270921</v>
+        <v>0.01471399668935074</v>
       </c>
       <c r="J66">
-        <v>0.008513098084552933</v>
+        <v>0.001471399668935074</v>
       </c>
       <c r="K66">
         <v>0.03096424104110667</v>
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>0.0001471399668935074</v>
+        <v>0</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>7.356998344675372e-05</v>
+        <v>0</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         </is>
       </c>
       <c r="E69">
-        <v>0.2365274967813132</v>
+        <v>0.2729446385874563</v>
       </c>
       <c r="F69">
-        <v>0.1983400772484826</v>
+        <v>0.1768438477101343</v>
       </c>
       <c r="G69">
-        <v>0.08015449696523819</v>
+        <v>0.04248666544050027</v>
       </c>
       <c r="H69">
-        <v>0.04798142357917969</v>
+        <v>0.0298878057752437</v>
       </c>
       <c r="I69">
-        <v>0.1835938936913739</v>
+        <v>0.1134816994666176</v>
       </c>
       <c r="J69">
-        <v>0.08505215586326492</v>
+        <v>0.08791613021887069</v>
       </c>
       <c r="K69">
         <v>0.03096424104110667</v>
@@ -3291,13 +3291,13 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>0.009771013426521979</v>
+        <v>0.004965973882655877</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70">
-        <v>0.0002101999527050106</v>
+        <v>0</v>
       </c>
       <c r="K70">
         <v>0.03262714349835286</v>
@@ -3333,13 +3333,13 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>0.01041475078168107</v>
+        <v>0.002299061982711054</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>0.00128747471031819</v>
+        <v>0</v>
       </c>
       <c r="K71">
         <v>0.03618789610255201</v>
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>0.02790404372159016</v>
+        <v>0.01305867206179879</v>
       </c>
       <c r="K72">
         <v>1.356309098187799e-05</v>
@@ -3414,13 +3414,13 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>0.01296670958249034</v>
+        <v>0.01453007173073386</v>
       </c>
       <c r="H73">
-        <v>0.003914974119130823</v>
+        <v>0.003310649255103918</v>
       </c>
       <c r="I73">
-        <v>7.356998344675372e-05</v>
+        <v>0</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -3450,10 +3450,10 @@
         </is>
       </c>
       <c r="E74">
-        <v>0.003793452271473239</v>
+        <v>0.001195512231009748</v>
       </c>
       <c r="F74">
-        <v>0.003494574213720802</v>
+        <v>0.002942799337870149</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -3501,13 +3501,13 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>2.627499408812633e-05</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>0.003468299219632676</v>
+        <v>0.002023174544785727</v>
       </c>
       <c r="K75">
         <v>0.0003232831095736713</v>
@@ -3576,22 +3576,22 @@
         </is>
       </c>
       <c r="E77">
-        <v>4.598123965422108e-05</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>0.0001050999763525053</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>3.065415976948071e-05</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>0.01500302162432013</v>
+        <v>0.008644473054993562</v>
       </c>
       <c r="I77">
-        <v>0.05194040831340813</v>
+        <v>0.03034761817178591</v>
       </c>
       <c r="J77">
-        <v>0.03707401665834625</v>
+        <v>0.003310649255103918</v>
       </c>
       <c r="K77">
         <v>0.001338471429796288</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <v>0.0004046349089571455</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="E79">
-        <v>0.2513334559499724</v>
+        <v>0.3253632517932684</v>
       </c>
       <c r="F79">
-        <v>0.2654037152841641</v>
+        <v>0.4342468272944638</v>
       </c>
       <c r="G79">
-        <v>0.5955796701612409</v>
+        <v>0.6201029979768256</v>
       </c>
       <c r="H79">
-        <v>0.3256785517223258</v>
+        <v>0.3406290233584697</v>
       </c>
       <c r="I79">
-        <v>0.001213904726871436</v>
+        <v>0.0009196247930844214</v>
       </c>
       <c r="J79">
-        <v>0.02740481883391576</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="K79">
         <v>0.003642342274285654</v>
@@ -3705,19 +3705,19 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>2.627499408812633e-05</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>9.196247930844215e-05</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>0.0001050999763525053</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>0.00503954386610263</v>
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>0.00128747471031819</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="K80">
         <v>0.003642342274285654</v>
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="E81">
-        <v>0.2868999448225124</v>
+        <v>0.2819569615596836</v>
       </c>
       <c r="F81">
-        <v>0.1581491894164324</v>
+        <v>0.1467721169762737</v>
       </c>
       <c r="G81">
         <v>0.0003678499172337686</v>
       </c>
       <c r="H81">
-        <v>0.1716545363777293</v>
+        <v>0.1235975721905463</v>
       </c>
       <c r="I81">
-        <v>0.09604561338973698</v>
+        <v>0.07117895898473423</v>
       </c>
       <c r="J81">
-        <v>0.2998502325336977</v>
+        <v>0.3389736987309178</v>
       </c>
       <c r="K81">
         <v>0.003642342274285654</v>
@@ -3789,19 +3789,19 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>2.627499408812633e-05</v>
+        <v>0</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82">
-        <v>0.007304448356499119</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82">
-        <v>0.00257494942063638</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="K82">
         <v>0.004284201249417812</v>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>0.004782048924038992</v>
+        <v>0.002207099503402612</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -3873,19 +3873,19 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0.00701542342152973</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="G84">
-        <v>3.065415976948071e-05</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>0.01182374733965685</v>
+        <v>0.006989148427441604</v>
       </c>
       <c r="I84">
-        <v>0.0001471399668935074</v>
+        <v>0</v>
       </c>
       <c r="J84">
-        <v>0.04277569037546967</v>
+        <v>0.02519771933051315</v>
       </c>
       <c r="K84">
         <v>0.009766065363433316</v>
@@ -3921,13 +3921,13 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>0.01413594681941197</v>
+        <v>0.009748022806694869</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85">
-        <v>5.254998817625266e-05</v>
+        <v>0</v>
       </c>
       <c r="K85">
         <v>0.01627960024238469</v>
@@ -3954,22 +3954,22 @@
         </is>
       </c>
       <c r="E86">
-        <v>0.01988688615045062</v>
+        <v>0.01443810925142542</v>
       </c>
       <c r="F86">
-        <v>0.03176646785254473</v>
+        <v>0.02758874379253265</v>
       </c>
       <c r="G86">
-        <v>0.03371957574642879</v>
+        <v>0.03375022990619828</v>
       </c>
       <c r="H86">
-        <v>0.004387924012717097</v>
+        <v>0.003310649255103918</v>
       </c>
       <c r="I86">
-        <v>0.01063086260805591</v>
+        <v>0.003678499172337686</v>
       </c>
       <c r="J86">
-        <v>0.004125174071835834</v>
+        <v>0.003310649255103917</v>
       </c>
       <c r="K86">
         <v>0.01811559483736611</v>
@@ -3996,10 +3996,10 @@
         </is>
       </c>
       <c r="E87">
-        <v>0.003126724296487034</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="F87">
-        <v>0.002653774402900759</v>
+        <v>0.001103549751701306</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -4008,10 +4008,10 @@
         <v>0</v>
       </c>
       <c r="I87">
-        <v>0.004782048924038992</v>
+        <v>0</v>
       </c>
       <c r="J87">
-        <v>0.002259649491578864</v>
+        <v>0</v>
       </c>
       <c r="K87">
         <v>0.01940597508526001</v>
@@ -4047,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>0.000157649964528758</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -4089,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>0.001129824745789432</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -4122,22 +4122,22 @@
         </is>
       </c>
       <c r="E90">
-        <v>0.0002528968180982159</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>0.002259649491578864</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="G90">
-        <v>6.130831953896143e-05</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>0.007751123255997267</v>
+        <v>0.003310649255103917</v>
       </c>
       <c r="I90">
-        <v>0.002758874379253265</v>
+        <v>0</v>
       </c>
       <c r="J90">
-        <v>0.0007619748285556635</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="K90">
         <v>0.03100197647222038</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>0.002053828704555208</v>
+        <v>0.001931212065477285</v>
       </c>
       <c r="K91">
         <v>4.41480526822655e-06</v>
@@ -4209,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -4221,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>0.01768745018699037</v>
+        <v>0.01535773404450984</v>
       </c>
       <c r="K92">
         <v>1.084812596723766e-05</v>
@@ -4254,16 +4254,16 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>2.627499408812633e-05</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>0.0383943351112746</v>
+        <v>0.01361044693764944</v>
       </c>
       <c r="I93">
-        <v>0.05940776163325363</v>
+        <v>0.05361412543682177</v>
       </c>
       <c r="J93">
-        <v>0.04263993623934768</v>
+        <v>0.02372631966157808</v>
       </c>
       <c r="K93">
         <v>1.084812596723766e-05</v>
@@ -4296,10 +4296,10 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>0.01899682072571534</v>
+        <v>0.009012322972227331</v>
       </c>
       <c r="H94">
-        <v>0.002414015081846607</v>
+        <v>0.00211513702409417</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -4332,10 +4332,10 @@
         </is>
       </c>
       <c r="E95">
-        <v>0.003563546073202133</v>
+        <v>0.003954386610263013</v>
       </c>
       <c r="F95">
-        <v>0.001402427809453743</v>
+        <v>0.00128747471031819</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -4389,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>0.004628778125191588</v>
+        <v>0.002758874379253265</v>
       </c>
       <c r="K96">
         <v>2.684466388170861e-05</v>
@@ -4425,13 +4425,13 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>0.004322236527496782</v>
+        <v>0.0008276623137759794</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97">
-        <v>0.006774569309055239</v>
+        <v>0.006805223468824719</v>
       </c>
       <c r="K97">
         <v>0.0001412515974204833</v>
@@ -4467,7 +4467,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>0.001494390288762185</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -4500,22 +4500,22 @@
         </is>
       </c>
       <c r="E99">
-        <v>0.1709812396542211</v>
+        <v>0.1453007173073386</v>
       </c>
       <c r="F99">
-        <v>0.2944638587456318</v>
+        <v>0.4222917049843664</v>
       </c>
       <c r="G99">
-        <v>0.6139415118631598</v>
+        <v>0.6314143829317638</v>
       </c>
       <c r="H99">
-        <v>0.2921188155232665</v>
+        <v>0.2544601802464594</v>
       </c>
       <c r="I99">
-        <v>0.001042241432162344</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="J99">
-        <v>0.03059285144994176</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="K99">
         <v>0.0005066058956846254</v>
@@ -4542,22 +4542,22 @@
         </is>
       </c>
       <c r="E100">
-        <v>0.4266369321316903</v>
+        <v>0.3840353135920545</v>
       </c>
       <c r="F100">
-        <v>0.1318052234688247</v>
+        <v>0.07945558212249403</v>
       </c>
       <c r="G100">
-        <v>0.0003941249113218949</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="H100">
-        <v>0.2233998528600331</v>
+        <v>0.1370240941695788</v>
       </c>
       <c r="I100">
-        <v>0.1624977009380173</v>
+        <v>0.1668199374655141</v>
       </c>
       <c r="J100">
-        <v>0.3062963644166513</v>
+        <v>0.2839801361044694</v>
       </c>
       <c r="K100">
         <v>0.0006450052780892257</v>
@@ -4584,22 +4584,22 @@
         </is>
       </c>
       <c r="E101">
-        <v>0.002184108883575501</v>
+        <v>0.002299061982711054</v>
       </c>
       <c r="F101">
-        <v>0.002919808718043039</v>
+        <v>0.001379437189626632</v>
       </c>
       <c r="G101">
-        <v>0.001602774639375706</v>
+        <v>0.0009196247930844214</v>
       </c>
       <c r="H101">
-        <v>0.02213996689350745</v>
+        <v>0.01425418429280853</v>
       </c>
       <c r="I101">
-        <v>0.01244558886640917</v>
+        <v>0.004690086444730551</v>
       </c>
       <c r="J101">
-        <v>0.01241493470663969</v>
+        <v>0.009748022806694869</v>
       </c>
       <c r="K101">
         <v>0.0008056083895549321</v>
@@ -4626,22 +4626,22 @@
         </is>
       </c>
       <c r="E102">
-        <v>9.196247930844215e-05</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>0.008161670038624242</v>
+        <v>0.003494574213720802</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102">
-        <v>0.01648427441603826</v>
+        <v>0.008000735699834468</v>
       </c>
       <c r="I102">
-        <v>3.065415976948071e-05</v>
+        <v>0</v>
       </c>
       <c r="J102">
-        <v>0.0359266752498314</v>
+        <v>0.02538164428913003</v>
       </c>
       <c r="K102">
         <v>0.002025005071156656</v>
@@ -4680,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="I103">
-        <v>0.0001226166390779229</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -4713,19 +4713,19 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>7.882498226437898e-05</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>4.598123965422108e-05</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>0.001348783029857152</v>
+        <v>0.0002758874379253265</v>
       </c>
       <c r="J104">
-        <v>0.0004291582367727301</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="K104">
         <v>0.01337144651356987</v>
@@ -4752,22 +4752,22 @@
         </is>
       </c>
       <c r="E105">
-        <v>0.02574949420636381</v>
+        <v>0.005057936361964319</v>
       </c>
       <c r="F105">
-        <v>0.0139553062350561</v>
+        <v>0.006805223468824719</v>
       </c>
       <c r="G105">
-        <v>0.04056859087206705</v>
+        <v>0.04542946477837043</v>
       </c>
       <c r="H105">
-        <v>0.002505977561155049</v>
+        <v>0.001011587272392864</v>
       </c>
       <c r="I105">
-        <v>0.006651952669977316</v>
+        <v>0.006437373551590951</v>
       </c>
       <c r="J105">
-        <v>0.005180553001042241</v>
+        <v>0.002207099503402612</v>
       </c>
       <c r="K105">
         <v>0.02491572547264859</v>
@@ -4794,22 +4794,22 @@
         </is>
       </c>
       <c r="E106">
-        <v>0.001448409049107964</v>
+        <v>0.001379437189626632</v>
       </c>
       <c r="F106">
-        <v>0.001632334007724848</v>
+        <v>0.001655324627551959</v>
       </c>
       <c r="G106">
         <v>0.000551774875850653</v>
       </c>
       <c r="H106">
-        <v>0.001011587272392864</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="I106">
-        <v>0.0003985040770032493</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="J106">
-        <v>0.001594016308012997</v>
+        <v>0.001747287106860401</v>
       </c>
       <c r="K106">
         <v>0.02558776084171082</v>
@@ -4836,22 +4836,22 @@
         </is>
       </c>
       <c r="E107">
-        <v>0.007173073386058488</v>
+        <v>0.005241861320581203</v>
       </c>
       <c r="F107">
-        <v>0.008299613757586904</v>
+        <v>0.003034761817178591</v>
       </c>
       <c r="G107">
-        <v>0.000236474946793137</v>
+        <v>0</v>
       </c>
       <c r="H107">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>0.00600821531481822</v>
+        <v>0</v>
       </c>
       <c r="J107">
-        <v>0.003739807491876648</v>
+        <v>0</v>
       </c>
       <c r="K107">
         <v>0.02926832320357238</v>
@@ -4878,22 +4878,22 @@
         </is>
       </c>
       <c r="E108">
-        <v>0.1440822144565017</v>
+        <v>0.1011587272392864</v>
       </c>
       <c r="F108">
-        <v>0.288279382012139</v>
+        <v>0.2137208019128196</v>
       </c>
       <c r="G108">
-        <v>0.08161013163772038</v>
+        <v>0.05867206179878609</v>
       </c>
       <c r="H108">
-        <v>0.236067684384771</v>
+        <v>0.210686040095641</v>
       </c>
       <c r="I108">
-        <v>0.4025197719330513</v>
+        <v>0.4885966525657531</v>
       </c>
       <c r="J108">
-        <v>0.3086260805591319</v>
+        <v>0.3286739010483722</v>
       </c>
       <c r="K108">
         <v>0.03420940799305026</v>
@@ -4920,22 +4920,22 @@
         </is>
       </c>
       <c r="E109">
-        <v>0.0298878057752437</v>
+        <v>0.02786463123045797</v>
       </c>
       <c r="F109">
-        <v>0.05186683832996138</v>
+        <v>0.05205076328857826</v>
       </c>
       <c r="G109">
-        <v>0.01085157255839617</v>
+        <v>0.007908773220526025</v>
       </c>
       <c r="H109">
-        <v>0.0414520875482803</v>
+        <v>0.04432591502666912</v>
       </c>
       <c r="I109">
-        <v>0.04693151860707498</v>
+        <v>0.02823248114769174</v>
       </c>
       <c r="J109">
-        <v>0.03798050395438661</v>
+        <v>0.02473790693397094</v>
       </c>
       <c r="K109">
         <v>0.03794427472786492</v>
@@ -4962,22 +4962,22 @@
         </is>
       </c>
       <c r="E110">
-        <v>0.001862240205995954</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="F110">
-        <v>0.00983998528600331</v>
+        <v>0.00211513702409417</v>
       </c>
       <c r="G110">
-        <v>7.882498226437898e-05</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>0.007540923303292256</v>
+        <v>0.002942799337870149</v>
       </c>
       <c r="I110">
-        <v>0.01125007663539942</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="J110">
-        <v>0.003893078290724051</v>
+        <v>0.002666911899944823</v>
       </c>
       <c r="K110">
         <v>0.04109547854168677</v>
@@ -5004,22 +5004,22 @@
         </is>
       </c>
       <c r="E111">
-        <v>0.0006207467353319846</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="F111">
-        <v>0.0008046716939488688</v>
+        <v>0.0006437373551590951</v>
       </c>
       <c r="G111">
-        <v>0.01079902257021992</v>
+        <v>0.002023174544785727</v>
       </c>
       <c r="H111">
-        <v>0.0005747654956777635</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="I111">
-        <v>0.01710502115137024</v>
+        <v>0.002482986941327938</v>
       </c>
       <c r="J111">
-        <v>0.0007356998344675373</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="K111">
         <v>0.04694949283785231</v>
@@ -5055,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>6.897185948133162e-05</v>
+        <v>0</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>0.0006897185948133162</v>
+        <v>0</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -5139,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>9.196247930844215e-05</v>
+        <v>0</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -5187,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>0.005964423658004677</v>
+        <v>0.003126724296487033</v>
       </c>
       <c r="K115">
         <v>1.090944274629316e-05</v>
@@ -5223,13 +5223,13 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>0.05249743818807641</v>
+        <v>0.03384219238550671</v>
       </c>
       <c r="I116">
-        <v>0.02036968916681994</v>
+        <v>0.0170130586720618</v>
       </c>
       <c r="J116">
-        <v>0.01605402138784519</v>
+        <v>0.01600147139966894</v>
       </c>
       <c r="K116">
         <v>1.712250644639293e-05</v>
@@ -5256,16 +5256,16 @@
         </is>
       </c>
       <c r="E117">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="F117">
         <v>0</v>
       </c>
       <c r="G117">
-        <v>0.01655324627551959</v>
+        <v>0.009380172889461099</v>
       </c>
       <c r="H117">
-        <v>0.001970624556609475</v>
+        <v>0.00128747471031819</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -5298,13 +5298,13 @@
         </is>
       </c>
       <c r="E118">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="F118">
         <v>0</v>
       </c>
       <c r="G118">
-        <v>2.627499408812633e-05</v>
+        <v>0</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -5313,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="J118">
-        <v>0.01368927191991382</v>
+        <v>0.01232297222733125</v>
       </c>
       <c r="K118">
         <v>4.082488746848847e-05</v>
@@ -5355,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <v>0.00178669959799259</v>
+        <v>0.002391024462019496</v>
       </c>
       <c r="K119">
         <v>4.082488746848847e-05</v>
@@ -5391,13 +5391,13 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>0.004782048924038992</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120">
-        <v>0.006305998581150319</v>
+        <v>0.003678499172337686</v>
       </c>
       <c r="K120">
         <v>0.0002187830939610646</v>
@@ -5430,16 +5430,16 @@
         <v>0</v>
       </c>
       <c r="G121">
-        <v>2.627499408812633e-05</v>
+        <v>0</v>
       </c>
       <c r="H121">
         <v>0</v>
       </c>
       <c r="I121">
-        <v>0.007724848261909141</v>
+        <v>0.0006437373551590951</v>
       </c>
       <c r="J121">
-        <v>0.001445124674846948</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="K121">
         <v>0.0003600115612504099</v>
@@ -5466,7 +5466,7 @@
         </is>
       </c>
       <c r="E122">
-        <v>0.002023174544785727</v>
+        <v>0.001103549751701306</v>
       </c>
       <c r="F122">
         <v>0.0003678499172337686</v>
@@ -5475,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>2.627499408812633e-05</v>
+        <v>0</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -5508,22 +5508,22 @@
         </is>
       </c>
       <c r="E123">
-        <v>0.3095686959720434</v>
+        <v>0.3004414199006805</v>
       </c>
       <c r="F123">
-        <v>0.1523424157229565</v>
+        <v>0.1682913371344491</v>
       </c>
       <c r="G123">
-        <v>0.0002101999527050106</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="H123">
-        <v>0.1940145563467248</v>
+        <v>0.1835571086996506</v>
       </c>
       <c r="I123">
-        <v>0.2640242780945374</v>
+        <v>0.2384587088467905</v>
       </c>
       <c r="J123">
-        <v>0.4182190809007068</v>
+        <v>0.4888725400036785</v>
       </c>
       <c r="K123">
         <v>0.0006135772660519643</v>
@@ -5550,22 +5550,22 @@
         </is>
       </c>
       <c r="E124">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>0.03815129141595943</v>
+        <v>0.01765679602722089</v>
       </c>
       <c r="G124">
-        <v>5.254998817625266e-05</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>0.02961191833731838</v>
+        <v>0.004965973882655877</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124">
-        <v>0.02984839328411151</v>
+        <v>0.03365826742688983</v>
       </c>
       <c r="K124">
         <v>0.00103052504682245</v>
@@ -5592,22 +5592,22 @@
         </is>
       </c>
       <c r="E125">
-        <v>0.1904772852676108</v>
+        <v>0.1857642082030532</v>
       </c>
       <c r="F125">
-        <v>0.2185554008250348</v>
+        <v>0.2928085341180798</v>
       </c>
       <c r="G125">
-        <v>0.4249454793872672</v>
+        <v>0.4187971307706456</v>
       </c>
       <c r="H125">
-        <v>0.2370004466748995</v>
+        <v>0.2413095457053522</v>
       </c>
       <c r="I125">
-        <v>0.0003218686775795475</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="J125">
-        <v>0.02438319451378124</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="K125">
         <v>0.003412993190377303</v>
@@ -5634,22 +5634,22 @@
         </is>
       </c>
       <c r="E126">
-        <v>0.002069155784439948</v>
+        <v>0.001563362148243517</v>
       </c>
       <c r="F126">
-        <v>0.00236474946793137</v>
+        <v>0.002207099503402612</v>
       </c>
       <c r="G126">
-        <v>0.0004992248876744003</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="H126">
-        <v>0.001839249586168843</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="I126">
-        <v>0.0003218686775795475</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="J126">
-        <v>0.0007094248403794109</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="K126">
         <v>0.01165196331108182</v>
@@ -5685,13 +5685,13 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>0.01206022228644999</v>
+        <v>0.009748022806694869</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="J127">
-        <v>0.0006831498462912845</v>
+        <v>0</v>
       </c>
       <c r="K127">
         <v>0.01309446106452682</v>
@@ -5718,22 +5718,22 @@
         </is>
       </c>
       <c r="E128">
-        <v>0.00554073937833364</v>
+        <v>0.001747287106860401</v>
       </c>
       <c r="F128">
-        <v>0.004072624083659581</v>
+        <v>0.003126724296487033</v>
       </c>
       <c r="G128">
-        <v>0.0007356998344675372</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <v>0.01678972122231272</v>
+        <v>0.006621298510207835</v>
       </c>
       <c r="I128">
-        <v>0.0163693213169027</v>
+        <v>0.006253448592974067</v>
       </c>
       <c r="J128">
-        <v>0.0004203999054100213</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="K128">
         <v>0.01309446106452682</v>
@@ -5760,22 +5760,22 @@
         </is>
       </c>
       <c r="E129">
-        <v>0.05260253816442891</v>
+        <v>0.04129115320949053</v>
       </c>
       <c r="F129">
-        <v>0.1289051209963478</v>
+        <v>0.1182637483906566</v>
       </c>
       <c r="G129">
-        <v>0.1545495152263591</v>
+        <v>0.170130586720618</v>
       </c>
       <c r="H129">
-        <v>0.0454031897842823</v>
+        <v>0.03715284164061063</v>
       </c>
       <c r="I129">
-        <v>0.05292440684200846</v>
+        <v>0.0163693213169027</v>
       </c>
       <c r="J129">
-        <v>0.1450379673664574</v>
+        <v>0.1738090858929557</v>
       </c>
       <c r="K129">
         <v>0.01544501452104805</v>
@@ -5802,22 +5802,22 @@
         </is>
       </c>
       <c r="E130">
-        <v>0.01250689718594813</v>
+        <v>0.004782048924038992</v>
       </c>
       <c r="F130">
-        <v>0.003126724296487033</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="G130">
-        <v>0.0003941249113218949</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="H130">
-        <v>0.009012322972227331</v>
+        <v>0.006253448592974067</v>
       </c>
       <c r="I130">
-        <v>0.01255287842560235</v>
+        <v>0.004414199006805224</v>
       </c>
       <c r="J130">
-        <v>0.0003415749231456423</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="K130">
         <v>0.02087082874533076</v>
@@ -5853,7 +5853,7 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>0.0001313749704406317</v>
+        <v>0</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -5895,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>0.000630599858115032</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -5937,7 +5937,7 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>0.001655324627551959</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -5985,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <v>0.009958222759399879</v>
+        <v>0.01140334743424683</v>
       </c>
       <c r="K134">
         <v>2.47225368754464e-05</v>
@@ -6018,10 +6018,10 @@
         <v>0</v>
       </c>
       <c r="G135">
-        <v>0.01806143093617804</v>
+        <v>0.01673717123413647</v>
       </c>
       <c r="H135">
-        <v>0.001812974592080717</v>
+        <v>0.001471399668935074</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -6066,10 +6066,10 @@
         <v>0</v>
       </c>
       <c r="I136">
-        <v>4.598123965422108e-05</v>
+        <v>0</v>
       </c>
       <c r="J136">
-        <v>0.006332273575238446</v>
+        <v>0.00257494942063638</v>
       </c>
       <c r="K136">
         <v>5.173085437714297e-05</v>
@@ -6105,13 +6105,13 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>0.03218686775795476</v>
+        <v>0.008276623137759793</v>
       </c>
       <c r="I137">
-        <v>0.06239654221077801</v>
+        <v>0.05260253816442891</v>
       </c>
       <c r="J137">
-        <v>0.02130902020547045</v>
+        <v>0.004414199006805224</v>
       </c>
       <c r="K137">
         <v>5.198957349102922e-05</v>
@@ -6147,13 +6147,13 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>0.001629049633463832</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="I138">
         <v>0</v>
       </c>
       <c r="J138">
-        <v>0.009038597966315457</v>
+        <v>0.00257494942063638</v>
       </c>
       <c r="K138">
         <v>0.0003451090515949456</v>
@@ -6183,19 +6183,19 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>0.06537510473504587</v>
+        <v>0.004965973882655877</v>
       </c>
       <c r="G139">
-        <v>3.678499172337686e-05</v>
+        <v>0</v>
       </c>
       <c r="H139">
-        <v>0.02677421897580073</v>
+        <v>0.03034761817178591</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139">
-        <v>0.02811424367429517</v>
+        <v>0.01324259702041567</v>
       </c>
       <c r="K139">
         <v>0.002532374685290419</v>
@@ -6222,22 +6222,22 @@
         </is>
       </c>
       <c r="E140">
-        <v>0.009343387897737723</v>
+        <v>0.001655324627551959</v>
       </c>
       <c r="F140">
-        <v>0.01348783029857152</v>
+        <v>0.009012322972227331</v>
       </c>
       <c r="G140">
-        <v>0.05558212249402244</v>
+        <v>0.06474158543314328</v>
       </c>
       <c r="H140">
-        <v>0.001918074568433222</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="I140">
-        <v>0.01397829685488321</v>
+        <v>0.004782048924038992</v>
       </c>
       <c r="J140">
-        <v>0.001523949657111327</v>
+        <v>0.001103549751701306</v>
       </c>
       <c r="K140">
         <v>0.007436282942616325</v>
@@ -6264,22 +6264,22 @@
         </is>
       </c>
       <c r="E141">
-        <v>0.2617252161118264</v>
+        <v>0.2192385506713261</v>
       </c>
       <c r="F141">
-        <v>0.2566774978031185</v>
+        <v>0.290969284531911</v>
       </c>
       <c r="G141">
-        <v>0.427331248850469</v>
+        <v>0.4423395254736068</v>
       </c>
       <c r="H141">
-        <v>0.2394965711132715</v>
+        <v>0.1933051315063454</v>
       </c>
       <c r="I141">
-        <v>0.0003218686775795475</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="J141">
-        <v>0.0276412937807089</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="K141">
         <v>0.009402740433933569</v>
@@ -6306,10 +6306,10 @@
         </is>
       </c>
       <c r="E142">
-        <v>0.001728894610998712</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="F142">
-        <v>0.00028610549118182</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -6357,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>0.0001050999763525053</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="I143">
         <v>0</v>
@@ -6390,22 +6390,22 @@
         </is>
       </c>
       <c r="E144">
-        <v>0.01070443259150267</v>
+        <v>0.009012322972227331</v>
       </c>
       <c r="F144">
-        <v>0.07918991273782519</v>
+        <v>0.0632701857642082</v>
       </c>
       <c r="G144">
-        <v>0.142210778002575</v>
+        <v>0.1274599963215008</v>
       </c>
       <c r="H144">
-        <v>0.0286397435560577</v>
+        <v>0.01655324627551959</v>
       </c>
       <c r="I144">
-        <v>0.09370976641530256</v>
+        <v>0.07623689534669856</v>
       </c>
       <c r="J144">
-        <v>0.1639296881158202</v>
+        <v>0.1151370240941696</v>
       </c>
       <c r="K144">
         <v>0.02604174400519967</v>
@@ -6432,22 +6432,22 @@
         </is>
       </c>
       <c r="E145">
-        <v>0.330402795659371</v>
+        <v>0.3628839433511127</v>
       </c>
       <c r="F145">
-        <v>0.2070586311895858</v>
+        <v>0.1699466617620011</v>
       </c>
       <c r="G145">
-        <v>0.002391024462019496</v>
+        <v>0</v>
       </c>
       <c r="H145">
-        <v>0.3465934470164744</v>
+        <v>0.2665072650358654</v>
       </c>
       <c r="I145">
-        <v>0.2390104837226412</v>
+        <v>0.194040831340813</v>
       </c>
       <c r="J145">
-        <v>0.3902099372027641</v>
+        <v>0.4112562074673533</v>
       </c>
       <c r="K145">
         <v>0.0273609725766676</v>
@@ -6489,7 +6489,7 @@
         <v>0</v>
       </c>
       <c r="J146">
-        <v>0.005563729998160751</v>
+        <v>0.004965973882655877</v>
       </c>
       <c r="K146">
         <v>0.009811898753547002</v>
@@ -6516,10 +6516,10 @@
         </is>
       </c>
       <c r="E147">
-        <v>0.004552142725767886</v>
+        <v>0.003586536693029244</v>
       </c>
       <c r="F147">
-        <v>0.001011587272392864</v>
+        <v>0.0008276623137759794</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -6573,7 +6573,7 @@
         <v>0</v>
       </c>
       <c r="J148">
-        <v>0.006713260989516277</v>
+        <v>0.008092698179142909</v>
       </c>
       <c r="K148">
         <v>0.009811898753547002</v>
@@ -6612,10 +6612,10 @@
         <v>0.1029060143461468</v>
       </c>
       <c r="I149">
-        <v>0.04138311568879897</v>
+        <v>0.03071546808901968</v>
       </c>
       <c r="J149">
-        <v>0.0333823799889645</v>
+        <v>0.02188707007540923</v>
       </c>
       <c r="K149">
         <v>0.009811898753547002</v>
@@ -6657,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="J150">
-        <v>0.001839249586168843</v>
+        <v>0.002023174544785727</v>
       </c>
       <c r="K150">
         <v>0.009811898753547002</v>
@@ -6699,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="J151">
-        <v>0.01480595916865919</v>
+        <v>0.0146220342100423</v>
       </c>
       <c r="K151">
         <v>0.009811898753547002</v>
@@ -6726,13 +6726,13 @@
         </is>
       </c>
       <c r="E152">
-        <v>4.598123965422108e-05</v>
+        <v>0</v>
       </c>
       <c r="F152">
         <v>0</v>
       </c>
       <c r="G152">
-        <v>0.01922015817546441</v>
+        <v>0.01793268346514622</v>
       </c>
       <c r="H152">
         <v>0.001379437189626632</v>
@@ -6768,22 +6768,22 @@
         </is>
       </c>
       <c r="E153">
-        <v>0.1434154864815155</v>
+        <v>0.1095273128563546</v>
       </c>
       <c r="F153">
-        <v>0.3591594629391208</v>
+        <v>0.3485377965789958</v>
       </c>
       <c r="G153">
-        <v>0.4106584513518484</v>
+        <v>0.4563178223284899</v>
       </c>
       <c r="H153">
         <v>0.1369321316902704</v>
       </c>
       <c r="I153">
-        <v>0.0003065415976948072</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="J153">
-        <v>4.598123965422108e-05</v>
+        <v>0</v>
       </c>
       <c r="K153">
         <v>0.01933360046238766</v>
@@ -6822,7 +6822,7 @@
         <v>0.0001839249586168843</v>
       </c>
       <c r="I154">
-        <v>6.130831953896143e-05</v>
+        <v>0</v>
       </c>
       <c r="J154">
         <v>0</v>
@@ -6852,22 +6852,22 @@
         </is>
       </c>
       <c r="E155">
-        <v>0.06497149163141439</v>
+        <v>0.06814419716755564</v>
       </c>
       <c r="F155">
-        <v>0.03103733676659923</v>
+        <v>0.02308258230641898</v>
       </c>
       <c r="G155">
-        <v>0.07173073386058487</v>
+        <v>0.07780025749494206</v>
       </c>
       <c r="H155">
         <v>0.0004598123965422108</v>
       </c>
       <c r="I155">
-        <v>0.03985040770032493</v>
+        <v>0.02942799337870149</v>
       </c>
       <c r="J155">
-        <v>0.000551774875850653</v>
+        <v>0.0004598123965422108</v>
       </c>
       <c r="K155">
         <v>0.04037981952294147</v>
@@ -6894,22 +6894,22 @@
         </is>
       </c>
       <c r="E156">
-        <v>0.02818649990803752</v>
+        <v>0.02997976825455214</v>
       </c>
       <c r="F156">
-        <v>0.03214088651830053</v>
+        <v>0.03310649255103917</v>
       </c>
       <c r="G156">
-        <v>0.01361044693764944</v>
+        <v>0.01333455949972411</v>
       </c>
       <c r="H156">
         <v>0.06933970939856539</v>
       </c>
       <c r="I156">
-        <v>0.01361044693764944</v>
+        <v>0.01232297222733125</v>
       </c>
       <c r="J156">
-        <v>0.06437373551590951</v>
+        <v>0.04533750229906199</v>
       </c>
       <c r="K156">
         <v>0.04037981952294147</v>
@@ -6939,10 +6939,10 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>0.0656612102262277</v>
+        <v>0.05582122494022439</v>
       </c>
       <c r="G157">
-        <v>4.598123965422108e-05</v>
+        <v>0</v>
       </c>
       <c r="H157">
         <v>0.05002758874379253</v>
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="J157">
-        <v>0.02363435718226963</v>
+        <v>0.02280669486849365</v>
       </c>
       <c r="K157">
         <v>0.04489730616875666</v>
@@ -6993,7 +6993,7 @@
         <v>0</v>
       </c>
       <c r="J158">
-        <v>0.01883917076118658</v>
+        <v>0.01379437189626632</v>
       </c>
       <c r="K158">
         <v>4.38776233032856e-07</v>
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="J159">
-        <v>0.004782048924038993</v>
+        <v>0.001103549751701306</v>
       </c>
       <c r="K159">
         <v>4.38776233032856e-07</v>
@@ -7068,10 +7068,10 @@
         <v>0</v>
       </c>
       <c r="G160">
-        <v>0.02357304886273067</v>
+        <v>0.01554165900312672</v>
       </c>
       <c r="H160">
-        <v>0.003954386610263013</v>
+        <v>0.003770461651646129</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -7104,7 +7104,7 @@
         </is>
       </c>
       <c r="E161">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="J161">
-        <v>0.007829948238261646</v>
+        <v>0.003126724296487033</v>
       </c>
       <c r="K161">
         <v>2.378817614292818e-06</v>
@@ -7146,10 +7146,10 @@
         </is>
       </c>
       <c r="E162">
-        <v>0.006253448592974067</v>
+        <v>0.002391024462019496</v>
       </c>
       <c r="F162">
-        <v>0.001491835775448062</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -7191,19 +7191,19 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>0.0001226166390779229</v>
+        <v>0</v>
       </c>
       <c r="G163">
-        <v>3.065415976948071e-05</v>
+        <v>0</v>
       </c>
       <c r="H163">
-        <v>0.02563454110722825</v>
+        <v>0.01940408313408129</v>
       </c>
       <c r="I163">
-        <v>0.02561811923592317</v>
+        <v>0.007173073386058488</v>
       </c>
       <c r="J163">
-        <v>0.01668462124596022</v>
+        <v>0.006069523634357183</v>
       </c>
       <c r="K163">
         <v>2.174200383305978e-05</v>
@@ -7230,22 +7230,22 @@
         </is>
       </c>
       <c r="E164">
-        <v>4.598123965422108e-05</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>0.1122555330758384</v>
+        <v>0.0866286555085525</v>
       </c>
       <c r="G164">
-        <v>3.065415976948071e-05</v>
+        <v>0</v>
       </c>
       <c r="H164">
-        <v>0.03289957697259518</v>
+        <v>0.02455398197535406</v>
       </c>
       <c r="I164">
-        <v>2.627499408812633e-05</v>
+        <v>0</v>
       </c>
       <c r="J164">
-        <v>0.03570771696576368</v>
+        <v>0.03770461651646129</v>
       </c>
       <c r="K164">
         <v>5.073591860973978e-05</v>
@@ -7275,19 +7275,19 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>6.130831953896143e-05</v>
+        <v>0</v>
       </c>
       <c r="G165">
         <v>0</v>
       </c>
       <c r="H165">
-        <v>0.004874011403347435</v>
+        <v>0.001011587272392864</v>
       </c>
       <c r="I165">
         <v>0</v>
       </c>
       <c r="J165">
-        <v>0.006358548569326572</v>
+        <v>0.002942799337870149</v>
       </c>
       <c r="K165">
         <v>0.0002107001058593462</v>
@@ -7314,22 +7314,22 @@
         </is>
       </c>
       <c r="E166">
-        <v>0.02193305131506345</v>
+        <v>0.01508184660658451</v>
       </c>
       <c r="F166">
-        <v>0.173236874910592</v>
+        <v>0.1956961559683649</v>
       </c>
       <c r="G166">
-        <v>0.2259211575010729</v>
+        <v>0.2274232113297774</v>
       </c>
       <c r="H166">
-        <v>0.01503586536693029</v>
+        <v>0.0111274599963215</v>
       </c>
       <c r="I166">
-        <v>0.08147875666727974</v>
+        <v>0.07320213352951996</v>
       </c>
       <c r="J166">
-        <v>0.230457973146956</v>
+        <v>0.1951443810925143</v>
       </c>
       <c r="K166">
         <v>0.0002812171251560673</v>
@@ -7356,22 +7356,22 @@
         </is>
       </c>
       <c r="E167">
-        <v>0.1666130218870701</v>
+        <v>0.200294279933787</v>
       </c>
       <c r="F167">
-        <v>0.1518402713914945</v>
+        <v>0.1727055361412544</v>
       </c>
       <c r="G167">
-        <v>0.3339157623689535</v>
+        <v>0.309269817914291</v>
       </c>
       <c r="H167">
-        <v>0.281405186683833</v>
+        <v>0.278094537428729</v>
       </c>
       <c r="I167">
-        <v>0.0004729498935862739</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="J167">
-        <v>0.01523949657111327</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="K167">
         <v>0.0004917363279042104</v>
@@ -7398,22 +7398,22 @@
         </is>
       </c>
       <c r="E168">
-        <v>0.2854975170130587</v>
+        <v>0.263104653301453</v>
       </c>
       <c r="F168">
-        <v>0.1916702429853064</v>
+        <v>0.1852124333272025</v>
       </c>
       <c r="G168">
-        <v>0.0002758874379253265</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="H168">
-        <v>0.2155140702593342</v>
+        <v>0.1703145116792349</v>
       </c>
       <c r="I168">
-        <v>0.3964371108016501</v>
+        <v>0.3533198455030347</v>
       </c>
       <c r="J168">
-        <v>0.3712919414593132</v>
+        <v>0.3707927165716388</v>
       </c>
       <c r="K168">
         <v>0.0008869860781373665</v>
@@ -7452,10 +7452,10 @@
         <v>0</v>
       </c>
       <c r="I169">
-        <v>0.0002627499408812633</v>
+        <v>0</v>
       </c>
       <c r="J169">
-        <v>0.002259649491578864</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="K169">
         <v>0.001111623555672776</v>
@@ -7482,22 +7482,22 @@
         </is>
       </c>
       <c r="E170">
-        <v>0.0462571270921464</v>
+        <v>0.0246459444546625</v>
       </c>
       <c r="F170">
-        <v>0.03226861218400671</v>
+        <v>0.03439396726135737</v>
       </c>
       <c r="G170">
-        <v>0.05349150879774385</v>
+        <v>0.04736067684384771</v>
       </c>
       <c r="H170">
-        <v>0.005011955122310097</v>
+        <v>0.004046349089571455</v>
       </c>
       <c r="I170">
-        <v>0.02900759347329147</v>
+        <v>0.002758874379253265</v>
       </c>
       <c r="J170">
-        <v>0.002101999527050106</v>
+        <v>0.00128747471031819</v>
       </c>
       <c r="K170">
         <v>0.001111623555672776</v>
@@ -7524,22 +7524,22 @@
         </is>
       </c>
       <c r="E171">
-        <v>0.01029979768254552</v>
+        <v>0.00855251057568512</v>
       </c>
       <c r="F171">
-        <v>0.001941430118733779</v>
+        <v>0.001839249586168843</v>
       </c>
       <c r="G171">
-        <v>0.0005824290356201337</v>
+        <v>0.0002758874379253265</v>
       </c>
       <c r="H171">
-        <v>0.006322420452455398</v>
+        <v>0.005149898841272761</v>
       </c>
       <c r="I171">
-        <v>0.0118762973278331</v>
+        <v>0.003126724296487033</v>
       </c>
       <c r="J171">
-        <v>0.0008145248167319162</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="K171">
         <v>0.001683659629861046</v>
@@ -7572,16 +7572,16 @@
         <v>0</v>
       </c>
       <c r="G172">
-        <v>0.001594016308012997</v>
+        <v>0.001011587272392864</v>
       </c>
       <c r="H172">
-        <v>0.0001609343387897738</v>
+        <v>0</v>
       </c>
       <c r="I172">
         <v>0</v>
       </c>
       <c r="J172">
-        <v>2.627499408812633e-05</v>
+        <v>0</v>
       </c>
       <c r="K172">
         <v>0.01067567607912654</v>
@@ -7617,10 +7617,10 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>0.00170130586720618</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="I173">
-        <v>2.627499408812633e-05</v>
+        <v>0</v>
       </c>
       <c r="J173">
         <v>0</v>
@@ -7650,22 +7650,22 @@
         </is>
       </c>
       <c r="E174">
-        <v>0.326535773404451</v>
+        <v>0.322788302372632</v>
       </c>
       <c r="F174">
-        <v>0.2250219688145015</v>
+        <v>0.2398381460364171</v>
       </c>
       <c r="G174">
-        <v>0.2889767641468947</v>
+        <v>0.2922567592422292</v>
       </c>
       <c r="H174">
-        <v>0.268093617803936</v>
+        <v>0.2697259518116608</v>
       </c>
       <c r="I174">
-        <v>0.3576814945216638</v>
+        <v>0.4015081846606585</v>
       </c>
       <c r="J174">
-        <v>0.1560209148952942</v>
+        <v>0.1178958984734228</v>
       </c>
       <c r="K174">
         <v>0.02782277983787001</v>
@@ -7692,22 +7692,22 @@
         </is>
       </c>
       <c r="E175">
-        <v>0.001954202685304396</v>
+        <v>0.001839249586168843</v>
       </c>
       <c r="F175">
-        <v>0.001164858071240267</v>
+        <v>0.0009196247930844216</v>
       </c>
       <c r="G175">
-        <v>0.002299061982711054</v>
+        <v>0.002207099503402612</v>
       </c>
       <c r="H175">
-        <v>0.00170130586720618</v>
+        <v>0.001839249586168843</v>
       </c>
       <c r="I175">
-        <v>0.001208649728053811</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="J175">
-        <v>0.0003678499172337686</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="K175">
         <v>0.02995457431248968</v>
@@ -7743,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <v>0.001563362148243517</v>
+        <v>0</v>
       </c>
       <c r="I176">
         <v>0</v>
